--- a/Tools/Luban/Datas/Store.xlsx
+++ b/Tools/Luban/Datas/Store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B056D38D-2B4D-44A3-8D2B-AF7A8CAC1985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D262081-B960-47DF-B419-53AA3880FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -152,6 +152,18 @@
   </si>
   <si>
     <t>铁处女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +629,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F11"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -661,7 +673,9 @@
       <c r="F1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11"/>
+      <c r="G1" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -698,7 +712,9 @@
       <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="13"/>
+      <c r="G2" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -762,7 +778,9 @@
       <c r="F4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13"/>
+      <c r="G4" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -797,7 +815,9 @@
       <c r="F5" s="16">
         <v>1012</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -830,7 +850,9 @@
       <c r="F6" s="16">
         <v>1012</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -863,7 +885,9 @@
       <c r="F7" s="16">
         <v>1012</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -896,7 +920,9 @@
       <c r="F8" s="16">
         <v>1012</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -929,7 +955,9 @@
       <c r="F9" s="16">
         <v>1012</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -962,7 +990,9 @@
       <c r="F10" s="16">
         <v>1012</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>

--- a/Tools/Luban/Datas/Store.xlsx
+++ b/Tools/Luban/Datas/Store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D262081-B960-47DF-B419-53AA3880FEC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33728C59-0024-4815-9839-A43CE8E46BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>##var</t>
   </si>
@@ -164,6 +164,14 @@
   </si>
   <si>
     <t>Test1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -624,12 +632,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W100"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -638,23 +646,23 @@
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15" style="9" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="15.109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="11.21875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="12.5546875" style="9" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.21875" customWidth="1"/>
+    <col min="5" max="6" width="15.77734375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15" style="9" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="15.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="9" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -671,29 +679,32 @@
         <v>11</v>
       </c>
       <c r="F1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-      <c r="N1" s="1"/>
+      <c r="N1" s="8"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="6"/>
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
-    </row>
-    <row r="2" spans="1:23" ht="32.700000000000003" x14ac:dyDescent="0.45">
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="32.700000000000003" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
         <v>2</v>
       </c>
@@ -713,26 +724,29 @@
         <v>3</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="2"/>
+      <c r="N2" s="7"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="5"/>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -742,13 +756,13 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="7"/>
+      <c r="H3" s="13"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
-      <c r="N3" s="2"/>
+      <c r="N3" s="7"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
@@ -758,8 +772,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
@@ -776,29 +791,32 @@
         <v>12</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="2"/>
+      <c r="N4" s="7"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>1001</v>
@@ -812,30 +830,33 @@
       <c r="E5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="3">
+        <v>188</v>
+      </c>
+      <c r="G5" s="16">
         <v>1012</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="3"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-    </row>
-    <row r="6" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="14">
         <v>1002</v>
@@ -847,21 +868,23 @@
       <c r="E6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="3">
+        <v>288</v>
+      </c>
+      <c r="G6" s="16">
         <v>1012</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="4"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="4"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
@@ -869,8 +892,9 @@
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
       <c r="W6" s="3"/>
-    </row>
-    <row r="7" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X6" s="3"/>
+    </row>
+    <row r="7" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="14">
         <v>1003</v>
@@ -882,21 +906,23 @@
       <c r="E7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="3">
+        <v>299</v>
+      </c>
+      <c r="G7" s="16">
         <v>1012</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="4"/>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
@@ -904,8 +930,9 @@
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
-    </row>
-    <row r="8" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X7" s="3"/>
+    </row>
+    <row r="8" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="14">
         <v>1004</v>
@@ -917,21 +944,23 @@
       <c r="E8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="3">
+        <v>4688</v>
+      </c>
+      <c r="G8" s="16">
         <v>1012</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="4"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
@@ -939,8 +968,9 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-    </row>
-    <row r="9" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X8" s="3"/>
+    </row>
+    <row r="9" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A9" s="17"/>
       <c r="B9" s="14">
         <v>1005</v>
@@ -952,21 +982,23 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="3">
+        <v>3688</v>
+      </c>
+      <c r="G9" s="16">
         <v>1012</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="H9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="4"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="4"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
@@ -974,8 +1006,9 @@
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
-    </row>
-    <row r="10" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X9" s="3"/>
+    </row>
+    <row r="10" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A10" s="3"/>
       <c r="B10" s="14">
         <v>1006</v>
@@ -987,21 +1020,23 @@
       <c r="E10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="3">
+        <v>2688</v>
+      </c>
+      <c r="G10" s="16">
         <v>1012</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="4"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="4"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
@@ -1009,8 +1044,9 @@
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
-    </row>
-    <row r="11" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X10" s="3"/>
+    </row>
+    <row r="11" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A11" s="3"/>
       <c r="B11" s="14">
         <v>1007</v>
@@ -1022,19 +1058,21 @@
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="3">
+        <v>1688</v>
+      </c>
+      <c r="G11" s="16">
         <v>1012</v>
       </c>
-      <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="4"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="4"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -1042,8 +1080,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1054,12 +1093,12 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
+      <c r="K12" s="4"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="4"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3"/>
@@ -1067,8 +1106,9 @@
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
-    </row>
-    <row r="13" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X12" s="3"/>
+    </row>
+    <row r="13" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1079,12 +1119,12 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
+      <c r="K13" s="4"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
@@ -1092,8 +1132,9 @@
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
-    </row>
-    <row r="14" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X13" s="3"/>
+    </row>
+    <row r="14" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1104,12 +1145,12 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
+      <c r="K14" s="4"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="4"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
@@ -1117,8 +1158,9 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
-    </row>
-    <row r="15" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1129,12 +1171,12 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="4"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="4"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
@@ -1142,8 +1184,9 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
-    </row>
-    <row r="16" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X15" s="3"/>
+    </row>
+    <row r="16" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1154,12 +1197,12 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
+      <c r="K16" s="4"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="4"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
@@ -1167,8 +1210,9 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1179,12 +1223,12 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="4"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="3"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="4"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
@@ -1192,8 +1236,9 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
-    </row>
-    <row r="18" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X17" s="3"/>
+    </row>
+    <row r="18" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1204,12 +1249,12 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="4"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="4"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
@@ -1217,8 +1262,9 @@
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
-    </row>
-    <row r="19" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X18" s="3"/>
+    </row>
+    <row r="19" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1229,12 +1275,12 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="4"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="4"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
@@ -1242,8 +1288,9 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1254,12 +1301,12 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="4"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="3"/>
       <c r="R20" s="3"/>
       <c r="S20" s="3"/>
@@ -1267,8 +1314,9 @@
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X20" s="3"/>
+    </row>
+    <row r="21" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1279,12 +1327,12 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
+      <c r="K21" s="4"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="3"/>
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
@@ -1292,8 +1340,9 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
-    </row>
-    <row r="22" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1304,12 +1353,12 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="4"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="4"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
@@ -1317,8 +1366,9 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
-    </row>
-    <row r="23" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X22" s="3"/>
+    </row>
+    <row r="23" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1329,12 +1379,12 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="3"/>
+      <c r="K23" s="4"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="4"/>
       <c r="Q23" s="3"/>
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
@@ -1342,8 +1392,9 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
-    </row>
-    <row r="24" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X23" s="3"/>
+    </row>
+    <row r="24" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1354,12 +1405,12 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="3"/>
+      <c r="K24" s="4"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="3"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
@@ -1367,8 +1418,9 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
-    </row>
-    <row r="25" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1379,12 +1431,12 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="4"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
       <c r="N25" s="3"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
       <c r="Q25" s="3"/>
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
@@ -1392,8 +1444,9 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X25" s="3"/>
+    </row>
+    <row r="26" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1404,12 +1457,12 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="3"/>
+      <c r="K26" s="4"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="4"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
@@ -1417,8 +1470,9 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
-    </row>
-    <row r="27" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1429,12 +1483,12 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="3"/>
+      <c r="K27" s="4"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
       <c r="N27" s="3"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3"/>
       <c r="S27" s="3"/>
@@ -1442,8 +1496,9 @@
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
-    </row>
-    <row r="28" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X27" s="3"/>
+    </row>
+    <row r="28" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1454,12 +1509,12 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="3"/>
+      <c r="K28" s="4"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
@@ -1467,8 +1522,9 @@
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
-    </row>
-    <row r="29" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1479,12 +1535,12 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="3"/>
+      <c r="K29" s="4"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="4"/>
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3"/>
@@ -1492,8 +1548,9 @@
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
-    </row>
-    <row r="30" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X29" s="3"/>
+    </row>
+    <row r="30" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1504,12 +1561,12 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="3"/>
+      <c r="K30" s="4"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="4"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
@@ -1517,8 +1574,9 @@
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
-    </row>
-    <row r="31" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X30" s="3"/>
+    </row>
+    <row r="31" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1529,12 +1587,12 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="3"/>
+      <c r="K31" s="4"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
       <c r="N31" s="3"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="4"/>
       <c r="Q31" s="3"/>
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
@@ -1542,8 +1600,9 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
-    </row>
-    <row r="32" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X31" s="3"/>
+    </row>
+    <row r="32" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1554,12 +1613,12 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="3"/>
+      <c r="K32" s="4"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="4"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
@@ -1567,8 +1626,9 @@
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
-    </row>
-    <row r="33" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X32" s="3"/>
+    </row>
+    <row r="33" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1579,12 +1639,12 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="3"/>
+      <c r="K33" s="4"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="4"/>
       <c r="Q33" s="3"/>
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
@@ -1592,8 +1652,9 @@
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
-    </row>
-    <row r="34" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X33" s="3"/>
+    </row>
+    <row r="34" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1604,12 +1665,12 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="3"/>
+      <c r="K34" s="4"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="4"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
@@ -1617,8 +1678,9 @@
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
-    </row>
-    <row r="35" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X34" s="3"/>
+    </row>
+    <row r="35" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1629,12 +1691,12 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="3"/>
+      <c r="K35" s="4"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="3"/>
       <c r="R35" s="3"/>
       <c r="S35" s="3"/>
@@ -1642,8 +1704,9 @@
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
-    </row>
-    <row r="36" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X35" s="3"/>
+    </row>
+    <row r="36" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1654,12 +1717,12 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="3"/>
+      <c r="K36" s="4"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="4"/>
       <c r="Q36" s="3"/>
       <c r="R36" s="3"/>
       <c r="S36" s="3"/>
@@ -1667,8 +1730,9 @@
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
-    </row>
-    <row r="37" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X36" s="3"/>
+    </row>
+    <row r="37" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1679,12 +1743,12 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="3"/>
+      <c r="K37" s="4"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="4"/>
       <c r="Q37" s="3"/>
       <c r="R37" s="3"/>
       <c r="S37" s="3"/>
@@ -1692,8 +1756,9 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
-    </row>
-    <row r="38" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X37" s="3"/>
+    </row>
+    <row r="38" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1704,12 +1769,12 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="3"/>
+      <c r="K38" s="4"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="4"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
@@ -1717,8 +1782,9 @@
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
-    </row>
-    <row r="39" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1729,7 +1795,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="3"/>
+      <c r="K39" s="4"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -1742,8 +1808,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1754,7 +1821,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="3"/>
+      <c r="K40" s="4"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -1767,8 +1834,9 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1779,7 +1847,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="3"/>
+      <c r="K41" s="4"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -1792,8 +1860,9 @@
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
-    </row>
-    <row r="42" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1804,7 +1873,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="3"/>
+      <c r="K42" s="4"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -1817,8 +1886,9 @@
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
-    </row>
-    <row r="43" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1829,7 +1899,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="3"/>
+      <c r="K43" s="4"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -1842,8 +1912,9 @@
       <c r="U43" s="3"/>
       <c r="V43" s="3"/>
       <c r="W43" s="3"/>
-    </row>
-    <row r="44" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1854,7 +1925,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="3"/>
+      <c r="K44" s="4"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
@@ -1867,8 +1938,9 @@
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
-    </row>
-    <row r="45" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1879,7 +1951,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="3"/>
+      <c r="K45" s="4"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
@@ -1892,8 +1964,9 @@
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
-    </row>
-    <row r="46" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1904,7 +1977,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="3"/>
+      <c r="K46" s="4"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
@@ -1917,8 +1990,9 @@
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
-    </row>
-    <row r="47" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1929,7 +2003,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
-      <c r="K47" s="3"/>
+      <c r="K47" s="4"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
@@ -1942,8 +2016,9 @@
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
-    </row>
-    <row r="48" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1954,7 +2029,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
-      <c r="K48" s="3"/>
+      <c r="K48" s="4"/>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
@@ -1967,8 +2042,9 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
-    </row>
-    <row r="49" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X48" s="3"/>
+    </row>
+    <row r="49" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1979,7 +2055,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
-      <c r="K49" s="3"/>
+      <c r="K49" s="4"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -1992,8 +2068,9 @@
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
-    </row>
-    <row r="50" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X49" s="3"/>
+    </row>
+    <row r="50" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2004,7 +2081,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
-      <c r="K50" s="3"/>
+      <c r="K50" s="4"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -2017,8 +2094,9 @@
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
-    </row>
-    <row r="51" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X50" s="3"/>
+    </row>
+    <row r="51" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2029,7 +2107,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="3"/>
+      <c r="K51" s="4"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -2042,8 +2120,9 @@
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
-    </row>
-    <row r="52" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X51" s="3"/>
+    </row>
+    <row r="52" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2054,7 +2133,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
+      <c r="K52" s="4"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -2067,8 +2146,9 @@
       <c r="U52" s="3"/>
       <c r="V52" s="3"/>
       <c r="W52" s="3"/>
-    </row>
-    <row r="53" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X52" s="3"/>
+    </row>
+    <row r="53" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2079,7 +2159,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
+      <c r="K53" s="4"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2092,8 +2172,9 @@
       <c r="U53" s="3"/>
       <c r="V53" s="3"/>
       <c r="W53" s="3"/>
-    </row>
-    <row r="54" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X53" s="3"/>
+    </row>
+    <row r="54" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2104,7 +2185,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="3"/>
+      <c r="K54" s="4"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
@@ -2117,8 +2198,9 @@
       <c r="U54" s="3"/>
       <c r="V54" s="3"/>
       <c r="W54" s="3"/>
-    </row>
-    <row r="55" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X54" s="3"/>
+    </row>
+    <row r="55" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2129,7 +2211,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="3"/>
+      <c r="K55" s="4"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -2142,8 +2224,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2154,7 +2237,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
-      <c r="K56" s="3"/>
+      <c r="K56" s="4"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2167,8 +2250,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2179,7 +2263,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="3"/>
+      <c r="K57" s="4"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3"/>
@@ -2192,8 +2276,9 @@
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
       <c r="W57" s="3"/>
-    </row>
-    <row r="58" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X57" s="3"/>
+    </row>
+    <row r="58" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2204,7 +2289,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
-      <c r="K58" s="3"/>
+      <c r="K58" s="4"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="3"/>
@@ -2217,8 +2302,9 @@
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
       <c r="W58" s="3"/>
-    </row>
-    <row r="59" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X58" s="3"/>
+    </row>
+    <row r="59" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2229,7 +2315,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
-      <c r="K59" s="3"/>
+      <c r="K59" s="4"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="3"/>
@@ -2242,8 +2328,9 @@
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
       <c r="W59" s="3"/>
-    </row>
-    <row r="60" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X59" s="3"/>
+    </row>
+    <row r="60" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2254,7 +2341,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
-      <c r="K60" s="3"/>
+      <c r="K60" s="4"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
       <c r="N60" s="3"/>
@@ -2267,8 +2354,9 @@
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
       <c r="W60" s="3"/>
-    </row>
-    <row r="61" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X60" s="3"/>
+    </row>
+    <row r="61" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2279,7 +2367,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="3"/>
+      <c r="K61" s="4"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="3"/>
@@ -2292,8 +2380,9 @@
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
       <c r="W61" s="3"/>
-    </row>
-    <row r="62" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X61" s="3"/>
+    </row>
+    <row r="62" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2304,7 +2393,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="3"/>
+      <c r="K62" s="4"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
@@ -2317,8 +2406,9 @@
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
-    </row>
-    <row r="63" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X62" s="3"/>
+    </row>
+    <row r="63" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2329,7 +2419,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="3"/>
+      <c r="K63" s="4"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -2342,8 +2432,9 @@
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
       <c r="W63" s="3"/>
-    </row>
-    <row r="64" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X63" s="3"/>
+    </row>
+    <row r="64" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2354,7 +2445,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="3"/>
+      <c r="K64" s="4"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -2367,8 +2458,9 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3"/>
-    </row>
-    <row r="65" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X64" s="3"/>
+    </row>
+    <row r="65" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2379,7 +2471,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="3"/>
+      <c r="K65" s="4"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -2392,8 +2484,9 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3"/>
-    </row>
-    <row r="66" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X65" s="3"/>
+    </row>
+    <row r="66" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2404,7 +2497,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="3"/>
+      <c r="K66" s="4"/>
       <c r="L66" s="3"/>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -2417,8 +2510,9 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3"/>
-    </row>
-    <row r="67" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X66" s="3"/>
+    </row>
+    <row r="67" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2429,7 +2523,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="3"/>
+      <c r="K67" s="4"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
@@ -2442,8 +2536,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2454,7 +2549,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="3"/>
+      <c r="K68" s="4"/>
       <c r="L68" s="3"/>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -2467,8 +2562,9 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3"/>
-    </row>
-    <row r="69" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X68" s="3"/>
+    </row>
+    <row r="69" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2479,7 +2575,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="3"/>
+      <c r="K69" s="4"/>
       <c r="L69" s="3"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
@@ -2492,8 +2588,9 @@
       <c r="U69" s="3"/>
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
-    </row>
-    <row r="70" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X69" s="3"/>
+    </row>
+    <row r="70" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2504,7 +2601,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
-      <c r="K70" s="3"/>
+      <c r="K70" s="4"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -2517,8 +2614,9 @@
       <c r="U70" s="3"/>
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
-    </row>
-    <row r="71" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X70" s="3"/>
+    </row>
+    <row r="71" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2529,7 +2627,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
-      <c r="K71" s="3"/>
+      <c r="K71" s="4"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -2542,8 +2640,9 @@
       <c r="U71" s="3"/>
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
-    </row>
-    <row r="72" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2554,7 +2653,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
       <c r="J72" s="4"/>
-      <c r="K72" s="3"/>
+      <c r="K72" s="4"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -2567,8 +2666,9 @@
       <c r="U72" s="3"/>
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
-    </row>
-    <row r="73" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X72" s="3"/>
+    </row>
+    <row r="73" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2579,7 +2679,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
       <c r="J73" s="4"/>
-      <c r="K73" s="3"/>
+      <c r="K73" s="4"/>
       <c r="L73" s="3"/>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -2592,8 +2692,9 @@
       <c r="U73" s="3"/>
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
-    </row>
-    <row r="74" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2604,7 +2705,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
       <c r="J74" s="4"/>
-      <c r="K74" s="3"/>
+      <c r="K74" s="4"/>
       <c r="L74" s="3"/>
       <c r="M74" s="3"/>
       <c r="N74" s="3"/>
@@ -2617,8 +2718,9 @@
       <c r="U74" s="3"/>
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
-    </row>
-    <row r="75" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X74" s="3"/>
+    </row>
+    <row r="75" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2629,7 +2731,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
-      <c r="K75" s="3"/>
+      <c r="K75" s="4"/>
       <c r="L75" s="3"/>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
@@ -2642,8 +2744,9 @@
       <c r="U75" s="3"/>
       <c r="V75" s="3"/>
       <c r="W75" s="3"/>
-    </row>
-    <row r="76" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X75" s="3"/>
+    </row>
+    <row r="76" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2654,7 +2757,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="3"/>
+      <c r="K76" s="4"/>
       <c r="L76" s="3"/>
       <c r="M76" s="3"/>
       <c r="N76" s="3"/>
@@ -2667,8 +2770,9 @@
       <c r="U76" s="3"/>
       <c r="V76" s="3"/>
       <c r="W76" s="3"/>
-    </row>
-    <row r="77" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X76" s="3"/>
+    </row>
+    <row r="77" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2679,7 +2783,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="3"/>
+      <c r="K77" s="4"/>
       <c r="L77" s="3"/>
       <c r="M77" s="3"/>
       <c r="N77" s="3"/>
@@ -2692,8 +2796,9 @@
       <c r="U77" s="3"/>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
-    </row>
-    <row r="78" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X77" s="3"/>
+    </row>
+    <row r="78" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2704,7 +2809,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="3"/>
+      <c r="K78" s="4"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="3"/>
@@ -2717,8 +2822,9 @@
       <c r="U78" s="3"/>
       <c r="V78" s="3"/>
       <c r="W78" s="3"/>
-    </row>
-    <row r="79" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X78" s="3"/>
+    </row>
+    <row r="79" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2729,7 +2835,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="3"/>
+      <c r="K79" s="4"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="3"/>
@@ -2742,8 +2848,9 @@
       <c r="U79" s="3"/>
       <c r="V79" s="3"/>
       <c r="W79" s="3"/>
-    </row>
-    <row r="80" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X79" s="3"/>
+    </row>
+    <row r="80" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2754,7 +2861,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="3"/>
+      <c r="K80" s="4"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="3"/>
@@ -2767,8 +2874,9 @@
       <c r="U80" s="3"/>
       <c r="V80" s="3"/>
       <c r="W80" s="3"/>
-    </row>
-    <row r="81" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X80" s="3"/>
+    </row>
+    <row r="81" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2779,7 +2887,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="3"/>
+      <c r="K81" s="4"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="3"/>
@@ -2792,8 +2900,9 @@
       <c r="U81" s="3"/>
       <c r="V81" s="3"/>
       <c r="W81" s="3"/>
-    </row>
-    <row r="82" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X81" s="3"/>
+    </row>
+    <row r="82" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2804,7 +2913,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="3"/>
+      <c r="K82" s="4"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
@@ -2817,8 +2926,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2829,7 +2939,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="3"/>
+      <c r="K83" s="4"/>
       <c r="L83" s="3"/>
       <c r="M83" s="3"/>
       <c r="N83" s="3"/>
@@ -2842,8 +2952,9 @@
       <c r="U83" s="3"/>
       <c r="V83" s="3"/>
       <c r="W83" s="3"/>
-    </row>
-    <row r="84" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X83" s="3"/>
+    </row>
+    <row r="84" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2854,7 +2965,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="3"/>
+      <c r="K84" s="4"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
@@ -2867,8 +2978,9 @@
       <c r="U84" s="3"/>
       <c r="V84" s="3"/>
       <c r="W84" s="3"/>
-    </row>
-    <row r="85" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X84" s="3"/>
+    </row>
+    <row r="85" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2879,7 +2991,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="3"/>
+      <c r="K85" s="4"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
@@ -2892,8 +3004,9 @@
       <c r="U85" s="3"/>
       <c r="V85" s="3"/>
       <c r="W85" s="3"/>
-    </row>
-    <row r="86" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X85" s="3"/>
+    </row>
+    <row r="86" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2904,7 +3017,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="3"/>
+      <c r="K86" s="4"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
@@ -2917,8 +3030,9 @@
       <c r="U86" s="3"/>
       <c r="V86" s="3"/>
       <c r="W86" s="3"/>
-    </row>
-    <row r="87" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X86" s="3"/>
+    </row>
+    <row r="87" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2929,7 +3043,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="3"/>
+      <c r="K87" s="4"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
@@ -2942,8 +3056,9 @@
       <c r="U87" s="3"/>
       <c r="V87" s="3"/>
       <c r="W87" s="3"/>
-    </row>
-    <row r="88" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X87" s="3"/>
+    </row>
+    <row r="88" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2954,7 +3069,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
-      <c r="K88" s="3"/>
+      <c r="K88" s="4"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
@@ -2967,8 +3082,9 @@
       <c r="U88" s="3"/>
       <c r="V88" s="3"/>
       <c r="W88" s="3"/>
-    </row>
-    <row r="89" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X88" s="3"/>
+    </row>
+    <row r="89" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2979,7 +3095,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
-      <c r="K89" s="3"/>
+      <c r="K89" s="4"/>
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
@@ -2992,8 +3108,9 @@
       <c r="U89" s="3"/>
       <c r="V89" s="3"/>
       <c r="W89" s="3"/>
-    </row>
-    <row r="90" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X89" s="3"/>
+    </row>
+    <row r="90" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -3004,7 +3121,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
-      <c r="K90" s="3"/>
+      <c r="K90" s="4"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
@@ -3017,8 +3134,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -3029,7 +3147,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="3"/>
+      <c r="K91" s="4"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="3"/>
@@ -3042,8 +3160,9 @@
       <c r="U91" s="3"/>
       <c r="V91" s="3"/>
       <c r="W91" s="3"/>
-    </row>
-    <row r="92" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X91" s="3"/>
+    </row>
+    <row r="92" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -3054,7 +3173,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="3"/>
+      <c r="K92" s="4"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
@@ -3067,8 +3186,9 @@
       <c r="U92" s="3"/>
       <c r="V92" s="3"/>
       <c r="W92" s="3"/>
-    </row>
-    <row r="93" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X92" s="3"/>
+    </row>
+    <row r="93" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3079,7 +3199,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="3"/>
+      <c r="K93" s="4"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="3"/>
@@ -3092,8 +3212,9 @@
       <c r="U93" s="3"/>
       <c r="V93" s="3"/>
       <c r="W93" s="3"/>
-    </row>
-    <row r="94" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X93" s="3"/>
+    </row>
+    <row r="94" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3104,7 +3225,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
-      <c r="K94" s="3"/>
+      <c r="K94" s="4"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="3"/>
@@ -3117,8 +3238,9 @@
       <c r="U94" s="3"/>
       <c r="V94" s="3"/>
       <c r="W94" s="3"/>
-    </row>
-    <row r="95" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X94" s="3"/>
+    </row>
+    <row r="95" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3129,7 +3251,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
       <c r="J95" s="4"/>
-      <c r="K95" s="3"/>
+      <c r="K95" s="4"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
@@ -3142,8 +3264,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3154,7 +3277,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
       <c r="J96" s="4"/>
-      <c r="K96" s="3"/>
+      <c r="K96" s="4"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
@@ -3167,8 +3290,9 @@
       <c r="U96" s="3"/>
       <c r="V96" s="3"/>
       <c r="W96" s="3"/>
-    </row>
-    <row r="97" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X96" s="3"/>
+    </row>
+    <row r="97" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3179,7 +3303,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="3"/>
+      <c r="K97" s="4"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="3"/>
@@ -3192,8 +3316,9 @@
       <c r="U97" s="3"/>
       <c r="V97" s="3"/>
       <c r="W97" s="3"/>
-    </row>
-    <row r="98" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X97" s="3"/>
+    </row>
+    <row r="98" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3204,7 +3329,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="3"/>
+      <c r="K98" s="4"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="3"/>
@@ -3217,8 +3342,9 @@
       <c r="U98" s="3"/>
       <c r="V98" s="3"/>
       <c r="W98" s="3"/>
-    </row>
-    <row r="99" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X98" s="3"/>
+    </row>
+    <row r="99" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3229,7 +3355,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="3"/>
+      <c r="K99" s="4"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="3"/>
@@ -3242,8 +3368,9 @@
       <c r="U99" s="3"/>
       <c r="V99" s="3"/>
       <c r="W99" s="3"/>
-    </row>
-    <row r="100" spans="1:23" ht="18.149999999999999" x14ac:dyDescent="0.45">
+      <c r="X99" s="3"/>
+    </row>
+    <row r="100" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3254,7 +3381,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
-      <c r="K100" s="3"/>
+      <c r="K100" s="4"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="3"/>
@@ -3267,6 +3394,7 @@
       <c r="U100" s="3"/>
       <c r="V100" s="3"/>
       <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Tools/Luban/Datas/Store.xlsx
+++ b/Tools/Luban/Datas/Store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33728C59-0024-4815-9839-A43CE8E46BB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9A2D8-DA75-4516-91AE-933A30A25D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
   <si>
     <t>##var</t>
   </si>
@@ -83,14 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>芙拉吉尔重装</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最专业的重装。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>value</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -172,6 +164,18 @@
   </si>
   <si>
     <t>价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰风暴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰风暴可以为你提供强大的火力和战斗能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间裂痕</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +641,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -679,13 +683,13 @@
         <v>11</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
@@ -718,7 +722,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="13" t="s">
         <v>3</v>
@@ -791,13 +795,13 @@
         <v>12</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
@@ -816,28 +820,28 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
     </row>
-    <row r="5" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:24" ht="47.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="14">
         <v>1001</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F5" s="3">
         <v>188</v>
       </c>
       <c r="G5" s="16">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -862,11 +866,11 @@
         <v>1002</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="3">
         <v>288</v>
@@ -875,7 +879,7 @@
         <v>1012</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -900,11 +904,11 @@
         <v>1003</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3">
         <v>299</v>
@@ -913,7 +917,7 @@
         <v>1012</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -938,11 +942,11 @@
         <v>1004</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" s="3">
         <v>4688</v>
@@ -951,7 +955,7 @@
         <v>1012</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -976,11 +980,11 @@
         <v>1005</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
         <v>3688</v>
@@ -989,7 +993,7 @@
         <v>1012</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1014,11 +1018,11 @@
         <v>1006</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
         <v>2688</v>
@@ -1027,7 +1031,7 @@
         <v>1012</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1052,11 +1056,11 @@
         <v>1007</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3">
         <v>1688</v>
@@ -1084,13 +1088,25 @@
     </row>
     <row r="12" spans="1:24" ht="18.149999999999999" x14ac:dyDescent="0.45">
       <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="14">
+        <v>1008</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3">
+        <v>188</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1013</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>

--- a/Tools/Luban/Datas/Store.xlsx
+++ b/Tools/Luban/Datas/Store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8E9A2D8-DA75-4516-91AE-933A30A25D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9A1632-36F1-4A61-A147-7E0712FB2A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="23452" windowHeight="12561" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>##var</t>
   </si>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>时间裂痕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FireStorm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -641,7 +645,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.95" x14ac:dyDescent="0.25"/>
@@ -841,7 +845,7 @@
         <v>1013</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
